--- a/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
+++ b/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
@@ -684,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D46" view="pageBreakPreview" workbookViewId="0" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90">
       <selection activeCell="AG64" sqref="AG64"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>Компютерний та технічний дизайн</t>
+          <t>Пайтон Херня</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr">

--- a/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
+++ b/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
@@ -692,43 +692,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="34" width="4"/>
-    <col customWidth="1" max="2" min="2" style="28" width="28.44140625"/>
-    <col customWidth="1" max="3" min="3" style="34" width="19.88671875"/>
-    <col customWidth="1" max="4" min="4" style="34" width="5.109375"/>
-    <col customWidth="1" max="5" min="5" style="34" width="9.6640625"/>
-    <col customWidth="1" max="6" min="6" style="34" width="4.33203125"/>
-    <col customWidth="1" max="7" min="7" style="34" width="6.5546875"/>
-    <col customWidth="1" max="8" min="8" style="34" width="5.88671875"/>
-    <col customWidth="1" max="9" min="9" style="34" width="7.44140625"/>
-    <col customWidth="1" max="10" min="10" style="34" width="5.33203125"/>
-    <col customWidth="1" max="12" min="11" style="34" width="6.88671875"/>
-    <col customWidth="1" max="13" min="13" style="34" width="6.5546875"/>
-    <col customWidth="1" max="14" min="14" style="34" width="5.33203125"/>
-    <col customWidth="1" max="15" min="15" style="34" width="7.33203125"/>
-    <col customWidth="1" max="16" min="16" style="34" width="5.44140625"/>
-    <col customWidth="1" max="17" min="17" style="34" width="7.44140625"/>
-    <col customWidth="1" max="18" min="18" style="34" width="7.33203125"/>
-    <col customWidth="1" max="19" min="19" style="34" width="11.109375"/>
-    <col customWidth="1" max="20" min="20" style="34" width="9.88671875"/>
-    <col customWidth="1" max="21" min="21" style="34" width="9.33203125"/>
-    <col customWidth="1" max="23" min="22" style="34" width="5.5546875"/>
-    <col customWidth="1" max="24" min="24" style="34" width="8.109375"/>
-    <col customWidth="1" max="25" min="25" style="34" width="7"/>
-    <col customWidth="1" max="26" min="26" style="34" width="6.109375"/>
-    <col customWidth="1" max="27" min="27" style="34" width="6.33203125"/>
-    <col customWidth="1" max="28" min="28" style="34" width="10.44140625"/>
-    <col customWidth="1" max="30" min="29" style="34" width="5.88671875"/>
-    <col customWidth="1" max="31" min="31" style="34" width="6.109375"/>
-    <col customWidth="1" max="32" min="32" style="34" width="7.6640625"/>
-    <col customWidth="1" max="33" min="33" style="34" width="5.5546875"/>
-    <col customWidth="1" max="34" min="34" style="34" width="9.109375"/>
+    <col collapsed="1" customWidth="1" max="1" min="1" style="34" width="4"/>
+    <col collapsed="1" customWidth="1" max="2" min="2" style="28" width="28.44140625"/>
+    <col collapsed="1" customWidth="1" max="3" min="3" style="34" width="19.88671875"/>
+    <col collapsed="1" customWidth="1" max="4" min="4" style="34" width="5.109375"/>
+    <col collapsed="1" customWidth="1" max="5" min="5" style="34" width="9.6640625"/>
+    <col collapsed="1" customWidth="1" max="6" min="6" style="34" width="4.33203125"/>
+    <col collapsed="1" customWidth="1" max="7" min="7" style="34" width="6.5546875"/>
+    <col collapsed="1" customWidth="1" max="8" min="8" style="34" width="5.88671875"/>
+    <col collapsed="1" customWidth="1" max="9" min="9" style="34" width="7.44140625"/>
+    <col collapsed="1" customWidth="1" max="10" min="10" style="34" width="5.33203125"/>
+    <col collapsed="1" customWidth="1" max="12" min="11" style="34" width="6.88671875"/>
+    <col collapsed="1" customWidth="1" max="13" min="13" style="34" width="6.5546875"/>
+    <col collapsed="1" customWidth="1" max="14" min="14" style="34" width="5.33203125"/>
+    <col collapsed="1" customWidth="1" max="15" min="15" style="34" width="7.33203125"/>
+    <col collapsed="1" customWidth="1" max="16" min="16" style="34" width="5.44140625"/>
+    <col collapsed="1" customWidth="1" max="17" min="17" style="34" width="7.44140625"/>
+    <col collapsed="1" customWidth="1" max="18" min="18" style="34" width="7.33203125"/>
+    <col collapsed="1" customWidth="1" max="19" min="19" style="34" width="11.109375"/>
+    <col collapsed="1" customWidth="1" max="20" min="20" style="34" width="9.88671875"/>
+    <col collapsed="1" customWidth="1" max="21" min="21" style="34" width="9.33203125"/>
+    <col collapsed="1" customWidth="1" max="23" min="22" style="34" width="5.5546875"/>
+    <col collapsed="1" customWidth="1" max="24" min="24" style="34" width="8.109375"/>
+    <col collapsed="1" customWidth="1" max="25" min="25" style="34" width="7"/>
+    <col collapsed="1" customWidth="1" max="26" min="26" style="34" width="6.109375"/>
+    <col collapsed="1" customWidth="1" max="27" min="27" style="34" width="6.33203125"/>
+    <col collapsed="1" customWidth="1" max="28" min="28" style="34" width="10.44140625"/>
+    <col collapsed="1" customWidth="1" max="30" min="29" style="34" width="5.88671875"/>
+    <col collapsed="1" customWidth="1" max="31" min="31" style="34" width="6.109375"/>
+    <col collapsed="1" customWidth="1" max="32" min="32" style="34" width="7.6640625"/>
+    <col collapsed="1" customWidth="1" max="33" min="33" style="34" width="5.5546875"/>
+    <col collapsed="1" customWidth="1" max="34" min="34" style="34" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="inlineStr">
         <is>
-          <t>Затверджую</t>
+          <t>OBAMASSS</t>
         </is>
       </c>
       <c r="F1" s="28" t="n"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>PYTHON HERNYA</t>
+          <t>Веб-технології та веб-дизайн</t>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">

--- a/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
+++ b/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albru\PycharmProjects\StudyLoadPy1\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreamReaper\PycharmProjects\StudyLoadPy1\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="516" yWindow="540" windowWidth="15996" windowHeight="7356"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="15990" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Робота кафедри" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Робота кафедри'!$10:$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Робота кафедри'!$A$1:$AG$67</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Робота кафедри'!$10:$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -353,9 +353,6 @@
     <t xml:space="preserve">КН-351, КН-356, КН-352, </t>
   </si>
   <si>
-    <t>Моделі, технології проектування та управління  інформаційними системами</t>
-  </si>
-  <si>
     <t>122(1к.)(17ч.)(3кр.)
 122(1к.)(10ч.)(3кр.)</t>
   </si>
@@ -463,12 +460,15 @@
   </si>
   <si>
     <t>122(3к.)(43ч.)(4.5кр.)</t>
+  </si>
+  <si>
+    <t>Моделі технології пректування та управління інформаційними системами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +526,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -638,11 +638,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -676,21 +691,59 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,53 +772,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1072,81 +1084,81 @@
   </sheetPr>
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="6.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="2" customWidth="1"/>
-    <col min="22" max="23" width="5.5546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="5.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="7" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.88671875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="6.109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="5.5546875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="5.85546875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1154,27 +1166,27 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
@@ -1184,110 +1196,110 @@
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -1295,34 +1307,34 @@
       <c r="AG5" s="30"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -1330,82 +1342,82 @@
       <c r="AG6" s="30"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="33" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="33" t="s">
+      <c r="AB8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
@@ -1436,363 +1448,363 @@
       <c r="Z9" s="30"/>
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-    </row>
-    <row r="10" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+    </row>
+    <row r="10" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+    </row>
+    <row r="11" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="18" t="s">
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="18" t="s">
+      <c r="AB11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="18" t="s">
+      <c r="AC11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AD11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AE11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AF11" s="22" t="s">
+      <c r="AF11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AG11" s="18" t="s">
+      <c r="AG11" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="19" t="s">
+    <row r="12" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="18"/>
-    </row>
-    <row r="13" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="18"/>
-    </row>
-    <row r="16" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="18"/>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="18"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="29"/>
+    </row>
+    <row r="13" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="29"/>
+    </row>
+    <row r="14" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="29"/>
+    </row>
+    <row r="15" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="29"/>
+    </row>
+    <row r="16" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="29"/>
+    </row>
+    <row r="17" spans="1:33" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="29"/>
     </row>
     <row r="18" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -1802,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="11">
         <v>53</v>
@@ -1895,7 +1907,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="11">
         <v>53</v>
@@ -2097,7 +2109,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>5</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="11">
         <v>53</v>
@@ -2299,20 +2311,20 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="11">
         <v>13</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="11">
@@ -2400,20 +2412,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="37.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="11">
         <v>13</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="11">
         <v>1</v>
       </c>
@@ -2503,16 +2515,16 @@
       <c r="A25" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="42" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="11">
         <v>40</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="11">
@@ -2600,20 +2612,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>9</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="11">
         <v>40</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="11">
         <v>2</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>10</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="11">
         <v>53</v>
@@ -2808,7 +2820,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="11">
         <v>53</v>
@@ -2901,7 +2913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>12</v>
       </c>
@@ -2909,13 +2921,13 @@
         <v>60</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11">
         <v>43</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="11">
         <v>2</v>
@@ -3002,7 +3014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>13</v>
       </c>
@@ -3010,13 +3022,13 @@
         <v>60</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="11">
         <v>43</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="11">
         <v>2</v>
@@ -3103,7 +3115,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>14</v>
       </c>
@@ -3111,13 +3123,13 @@
         <v>64</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="11">
         <v>43</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="11">
         <v>2</v>
@@ -3204,7 +3216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>15</v>
       </c>
@@ -3212,13 +3224,13 @@
         <v>65</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="11">
         <v>43</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F32" s="11">
         <v>2</v>
@@ -3305,7 +3317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" ht="51" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>16</v>
       </c>
@@ -3406,7 +3418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="51" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>17</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="51" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>18</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>19</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>21</v>
       </c>
@@ -3911,7 +3923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>22</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>23</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>24</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>25</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>26</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>27</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>28</v>
       </c>
@@ -4618,7 +4630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>29</v>
       </c>
@@ -4719,21 +4731,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>30</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D47" s="11">
         <v>27</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="11">
         <v>1</v>
@@ -4820,15 +4832,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>31</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="11">
         <v>31</v>
@@ -4926,16 +4938,16 @@
         <v>32</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="D49" s="11">
         <v>17</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -5022,21 +5034,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>33</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D50" s="11">
         <v>30</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="11">
         <v>1</v>
@@ -5128,7 +5140,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -5170,47 +5182,47 @@
       <c r="A52" s="9">
         <v>35</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="36"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="35"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="11">
         <v>31</v>
       </c>
@@ -5250,8 +5262,8 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="38" t="s">
-        <v>115</v>
+      <c r="B54" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>37</v>
@@ -5293,9 +5305,9 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" s="11">
         <v>22</v>
@@ -5334,9 +5346,9 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="38"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" s="11">
         <v>9</v>
@@ -5375,8 +5387,8 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="38" t="s">
-        <v>117</v>
+      <c r="B57" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>37</v>
@@ -5420,46 +5432,46 @@
       <c r="A58" s="9">
         <v>36</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
+      <c r="B58" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="38"/>
+      <c r="A59" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="17"/>
       <c r="C59" s="11" t="s">
         <v>37</v>
       </c>
@@ -5501,10 +5513,10 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" s="11">
         <v>22</v>
@@ -5542,10 +5554,10 @@
       <c r="AG60" s="12"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="11">
         <v>9</v>
@@ -5586,8 +5598,8 @@
       <c r="A62" s="9">
         <v>37</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>119</v>
+      <c r="B62" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -5626,21 +5638,21 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A63" s="37">
+      <c r="A63" s="16">
         <v>38</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -5671,13 +5683,13 @@
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
+      <c r="A64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="12">
         <v>48</v>
       </c>
@@ -5752,14 +5764,14 @@
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
+      <c r="A65" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -5817,61 +5829,81 @@
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="S67" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="S67" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
-      <c r="AG67" s="39"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="66">
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A67:Q67"/>
-    <mergeCell ref="S67:AG67"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A59:B61"/>
-    <mergeCell ref="A63"/>
-    <mergeCell ref="B63"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="B52:AG52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="B58:AG58"/>
+    <mergeCell ref="T11:T17"/>
+    <mergeCell ref="V11:V17"/>
+    <mergeCell ref="U11:U17"/>
+    <mergeCell ref="N11:N17"/>
+    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="P11:P17"/>
+    <mergeCell ref="Q11:Q17"/>
+    <mergeCell ref="R11:R17"/>
+    <mergeCell ref="S11:S17"/>
+    <mergeCell ref="M11:M17"/>
+    <mergeCell ref="A7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="I11:I17"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="K11:K17"/>
+    <mergeCell ref="AG11:AG17"/>
+    <mergeCell ref="W11:W17"/>
+    <mergeCell ref="AA11:AA17"/>
+    <mergeCell ref="AE11:AE17"/>
+    <mergeCell ref="AF11:AF17"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X12:X17"/>
+    <mergeCell ref="Y12:Y17"/>
+    <mergeCell ref="Z12:Z17"/>
+    <mergeCell ref="L11:L17"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="A5:AB6"/>
+    <mergeCell ref="AC5:AG6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F1:Z4"/>
     <mergeCell ref="A8:Z8"/>
     <mergeCell ref="AB8:AG8"/>
     <mergeCell ref="B10:B17"/>
@@ -5888,43 +5920,23 @@
     <mergeCell ref="G10:G17"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="P10:AG10"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="A5:AB6"/>
-    <mergeCell ref="AC5:AG6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F1:Z4"/>
-    <mergeCell ref="A7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="H10:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="K11:K17"/>
-    <mergeCell ref="AG11:AG17"/>
-    <mergeCell ref="W11:W17"/>
-    <mergeCell ref="AA11:AA17"/>
-    <mergeCell ref="AE11:AE17"/>
-    <mergeCell ref="AF11:AF17"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="X12:X17"/>
-    <mergeCell ref="Y12:Y17"/>
-    <mergeCell ref="Z12:Z17"/>
-    <mergeCell ref="L11:L17"/>
-    <mergeCell ref="P11:P17"/>
-    <mergeCell ref="Q11:Q17"/>
-    <mergeCell ref="R11:R17"/>
-    <mergeCell ref="S11:S17"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="T11:T17"/>
-    <mergeCell ref="V11:V17"/>
-    <mergeCell ref="U11:U17"/>
-    <mergeCell ref="N11:N17"/>
-    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A67:Q67"/>
+    <mergeCell ref="S67:AG67"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A59:B61"/>
+    <mergeCell ref="A63"/>
+    <mergeCell ref="B63"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="B52:AG52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="B58:AG58"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="1.37795" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
+++ b/src/resources/ІТтаКБ. Сем I. Форма навчання  денна.xlsx
@@ -3327,7 +3327,7 @@
       <c r="J36" s="35" t="n">
         <v>36</v>
       </c>
-      <c r="K36" s="35" t="n">
+      <c r="K36" s="50" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="35" t="n">
